--- a/bin/save_data/editor_table/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_table/编辑器_编辑器配置.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="editor_table" sheetId="2" r:id="rId2"/>
+    <sheet name="editor_table" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -647,16 +646,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/bin/save_data/editor_table/编辑器_编辑器配置.xlsx
+++ b/bin/save_data/editor_table/编辑器_编辑器配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>分组</t>
     <phoneticPr fontId="1"/>
@@ -196,14 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>json;excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./config/field.json;./app_cfg.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>编辑器</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,14 +216,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>json;excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./config/table.json;./app_cfg.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>编辑器</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -252,14 +236,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>json;excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./config/tab.json;./app_cfg.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>编辑器</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -280,14 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>json;excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./config/templete.json;./app_cfg.xlsx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>编辑器</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,14 +273,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>json;excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>./config/menu.json;./app_cfg.xlsx</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -791,12 +751,6 @@
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
       <c r="K4">
         <v>101</v>
       </c>
@@ -806,25 +760,19 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -835,25 +783,19 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -864,25 +806,19 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -893,25 +829,19 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K8">
         <v>100</v>
